--- a/Data/Screeners/FD2022-03.xlsx
+++ b/Data/Screeners/FD2022-03.xlsx
@@ -14,6 +14,19 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-03-05" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-03-10" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-03-11" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-03-14" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-03-15" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-03-16" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-03-17" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-03-18" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-03-21" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-03-22" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-03-23" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-03-24" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-03-25" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-03-28" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-03-30" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-03-31" sheetId="21" state="visible" r:id="rId21"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -443,6 +456,1716 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TRQ </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AVD </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CINF </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MRTN </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LYB </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> REGN </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> JNJ </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SFBS </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PKG </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SIGI </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> REGN </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CINF </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> JBHT </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TRQ </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DAC </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> IRWD </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> JNJ </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WCN </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SFBS </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LHCG </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CINF </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MRTN </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> REGN </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> UNH </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MBII </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AVD </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ICUI </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TRQ </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EVH </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> IRWD </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KRC </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SOI </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LHCG </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ANTM </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> REGN </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DAC </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MBII </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AVD </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> POWI </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LHCG </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ACLS </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ALL </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AKAM </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TRQ </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ANTM </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KRO </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GSAT </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> IRWD </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PKG </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> JNJ </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ICUI </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KNSL </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EVH </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AIZ </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SIGI </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> UNH </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KRC </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MOH </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ROL </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CB </t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ICE </t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HZNP </t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CHGG </t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PWR </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PLAN </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RADA </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AVD </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EQT </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GSAT </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ANTM </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AGCO </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WAB </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TNET </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COST </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CB </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ALL </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PWR </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TGLS </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AVD </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AOSL </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DAR </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TNET </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COHR </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LHCG </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RADA </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CP </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SFBS </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AGCO </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GSAT </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CB </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SI </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WRK </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ALL </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GNK </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AOSL </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AVD </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LHCG </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DAR </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> OPCH </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MGPI </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AGCO </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PLUG </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ALL </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> OVV </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ACLS </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GSAT </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SEDG </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ATSG </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PLAN </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AMRC </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LHCG </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SCHN </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AVD </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TNET </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EQT </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NEX </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LYB </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AGCO </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> OLED </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SI </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ANET </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ACLS </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MPWR </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RADA </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HEXO </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BSM </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EQT </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COHR </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AGCO </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> USAC </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DEN </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> OPCH </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CGNX </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> JXN </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KRP </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GNK </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EVH </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LHCG </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> IIVI </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BBAR </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SOI </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CPG </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KRC </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PLMR </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> OVV </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -641,6 +2364,608 @@
       <c r="B19" t="inlineStr">
         <is>
           <t xml:space="preserve"> SU </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LHCG </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LOVE </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SONO </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> JOBS </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AMED </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CGNX </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ADMA </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WISA </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INSP </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TGLS </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> IIVI </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LECO </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KRC </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> OGI </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BSM </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PLUS </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TNET </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BEEM </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EXPO </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ATSG </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRFT </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FDS </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SFBS </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SIGI </t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ONDS </t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WAB </t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LSI </t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PWR </t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PLD </t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AVEO </t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ANTM </t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ENV </t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CLFD </t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> UNH </t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ENSG </t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AXS </t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SNPS </t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> REGN </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> REI </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AOSL </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> OGI </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LTHM </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ADMA </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CASI </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRFT </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EXLS </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EVH </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MMSI </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AXS </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ANTM </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BEEM </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MEG </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> REGN </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RLI </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MMC </t>
         </is>
       </c>
     </row>
@@ -1633,4 +3958,140 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MRTN </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PWR </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SSRM </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BSM </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TECK </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CASI </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LYB </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NR </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EQT </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RGLD </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> REGN </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>